--- a/BW.xlsx
+++ b/BW.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumairashamim/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumairashamim/Desktop/Latex-Reports-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28400" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="640" windowWidth="21580" windowHeight="15480" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="h1,h2-h3 wo" sheetId="2" r:id="rId1"/>
     <sheet name="h1,h2-h3 W " sheetId="3" r:id="rId2"/>
+    <sheet name="h1,h2-h4 wo" sheetId="5" r:id="rId3"/>
+    <sheet name="h1,h2-h4 W" sheetId="6" r:id="rId4"/>
+    <sheet name="h1,h3-h4 wo" sheetId="8" r:id="rId5"/>
+    <sheet name="h1,h3-h4 W " sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>H1</t>
   </si>
@@ -37,6 +41,9 @@
   </si>
   <si>
     <t>IPERF Results- Host 1, Host 2 to Host 3 at the same time without QoS application</t>
+  </si>
+  <si>
+    <t>H3</t>
   </si>
 </sst>
 </file>
@@ -348,11 +355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2109413872"/>
-        <c:axId val="-2112797840"/>
+        <c:axId val="2134258160"/>
+        <c:axId val="2134266928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109413872"/>
+        <c:axId val="2134258160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112797840"/>
+        <c:crossAx val="2134266928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112797840"/>
+        <c:axId val="2134266928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -627,7 +634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109413872"/>
+        <c:crossAx val="2134258160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1024,11 +1031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2123395184"/>
-        <c:axId val="-2124175920"/>
+        <c:axId val="2133637360"/>
+        <c:axId val="2133644160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123395184"/>
+        <c:axId val="2133637360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124175920"/>
+        <c:crossAx val="2133644160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1179,7 +1186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124175920"/>
+        <c:axId val="2133644160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -1303,7 +1310,2711 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123395184"/>
+        <c:crossAx val="2133637360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IPERF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Results - Host 1, Host 2 to Host 4 at the same time without QoS application</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h1,h2-h4 wo'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h1,h2-h4 wo'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h1,h2-h4 wo'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h1,h2-h4 wo'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h1,h2-h4 wo'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h1,h2-h4 wo'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2125545376"/>
+        <c:axId val="-2125519664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2125545376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Observations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125519664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2125519664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+          <c:min val="15.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125545376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IPERF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Results - Host 1, Host 2 to Host 4 at the same time with QoS application</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h1,h2-h4 W'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h1,h2-h4 W'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h1,h2-h4 W'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h1,h2-h4 W'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h1,h2-h4 W'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h1,h2-h4 W'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2124829296"/>
+        <c:axId val="-2124629472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2124829296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Observations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124629472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124629472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+          <c:min val="15.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124829296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IPERF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Results - Host 1, Host 3 to Host 4 at the same time without QoS application</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h1,h3-h4 wo'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h1,h3-h4 wo'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h1,h3-h4 wo'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h1,h3-h4 wo'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h1,h3-h4 wo'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h1,h3-h4 wo'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2124896896"/>
+        <c:axId val="-2118756240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2124896896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Observations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2118756240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2118756240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+          <c:min val="15.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124896896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IPERF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Results - Host 1, Host 3 to Host 4 at the same time with QoS application</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h1,h3-h4 W '!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h1,h3-h4 W '!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h1,h3-h4 W '!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h1,h3-h4 W '!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h1,h3-h4 W '!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h1,h3-h4 W '!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2127476160"/>
+        <c:axId val="-2126183504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2127476160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Observations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2126183504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2126183504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+          <c:min val="15.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="002060"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127476160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,6 +4231,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
@@ -2072,6 +4943,2210 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2658,6 +7733,154 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2959,7 +8182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -3145,4 +8368,376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>27.2</v>
+      </c>
+      <c r="C2">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>25.1</v>
+      </c>
+      <c r="C3">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23.2</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>28.5</v>
+      </c>
+      <c r="C5">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>27.2</v>
+      </c>
+      <c r="C6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>22.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>46.6</v>
+      </c>
+      <c r="C2">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>48.2</v>
+      </c>
+      <c r="C3">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>47.2</v>
+      </c>
+      <c r="C4">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>41.9</v>
+      </c>
+      <c r="C5">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>42.3</v>
+      </c>
+      <c r="C6">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>41.8</v>
+      </c>
+      <c r="C7">
+        <v>45.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>38.9</v>
+      </c>
+      <c r="C2">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>41.3</v>
+      </c>
+      <c r="C3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>39.6</v>
+      </c>
+      <c r="C4">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C6">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>39.6</v>
+      </c>
+      <c r="C7">
+        <v>39.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>42.8</v>
+      </c>
+      <c r="C2">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C3">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>39.6</v>
+      </c>
+      <c r="C4">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>44.4</v>
+      </c>
+      <c r="C5">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>48.8</v>
+      </c>
+      <c r="C7">
+        <v>39.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>